--- a/documnets/外部設計書_ヨッシーアイランド .xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1B4B3-E219-41A8-9A73-80AFA34E5C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB2F03-CC3F-4071-9AFB-256E549A7CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="1080" windowWidth="11295" windowHeight="8400" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="30" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="202">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -13352,6 +13352,72 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970C4B27-F606-4701-B272-6E561F3F0D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1678782" y="2343976"/>
+          <a:ext cx="809625" cy="358840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16235,7 +16301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE947E-2311-4DF2-8B48-A5A08300A3AE}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
@@ -57521,8 +57587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489AACDA-DCF7-43B5-BBC0-0656E4BAFFB5}">
   <dimension ref="A1:AP107"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -58111,6 +58177,16 @@
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>117</v>
+      </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
@@ -58160,6 +58236,18 @@
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
+      <c r="G17" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="37">
+        <v>12</v>
+      </c>
+      <c r="I17" s="37">
+        <v>3</v>
+      </c>
+      <c r="J17" s="39">
+        <v>1</v>
+      </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
       <c r="N17" s="40"/>
@@ -58213,6 +58301,18 @@
       <c r="D18" s="22"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
+      <c r="G18" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="37">
+        <v>12</v>
+      </c>
+      <c r="I18" s="37">
+        <v>3</v>
+      </c>
+      <c r="J18" s="39">
+        <v>1</v>
+      </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
@@ -58266,6 +58366,18 @@
       <c r="D19" s="22"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
+      <c r="G19" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="37">
+        <v>12</v>
+      </c>
+      <c r="I19" s="37">
+        <v>3</v>
+      </c>
+      <c r="J19" s="39">
+        <v>1</v>
+      </c>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
       <c r="N19" s="41"/>
@@ -58319,6 +58431,18 @@
       <c r="D20" s="22"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
+      <c r="G20" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="37">
+        <v>12</v>
+      </c>
+      <c r="I20" s="37">
+        <v>3</v>
+      </c>
+      <c r="J20" s="39">
+        <v>1</v>
+      </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
@@ -58372,6 +58496,18 @@
       <c r="D21" s="22"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
+      <c r="G21" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="37">
+        <v>12</v>
+      </c>
+      <c r="I21" s="37">
+        <v>3</v>
+      </c>
+      <c r="J21" s="39">
+        <v>1</v>
+      </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -58425,6 +58561,18 @@
       <c r="D22" s="22"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
+      <c r="G22" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="37">
+        <v>12</v>
+      </c>
+      <c r="I22" s="37">
+        <v>3</v>
+      </c>
+      <c r="J22" s="39">
+        <v>1</v>
+      </c>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -58478,10 +58626,18 @@
       <c r="D23" s="22"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="37">
+        <v>12</v>
+      </c>
+      <c r="I23" s="37">
+        <v>3</v>
+      </c>
+      <c r="J23" s="39">
+        <v>1</v>
+      </c>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -58536,10 +58692,18 @@
       <c r="D24" s="22"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="37">
+        <v>12</v>
+      </c>
+      <c r="I24" s="37">
+        <v>3</v>
+      </c>
+      <c r="J24" s="39">
+        <v>1</v>
+      </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
@@ -58594,10 +58758,18 @@
       <c r="D25" s="22"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="37">
+        <v>12</v>
+      </c>
+      <c r="I25" s="37">
+        <v>3</v>
+      </c>
+      <c r="J25" s="39">
+        <v>1</v>
+      </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
@@ -58651,10 +58823,18 @@
       <c r="D26" s="22"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="37">
+        <v>12</v>
+      </c>
+      <c r="I26" s="37">
+        <v>3</v>
+      </c>
+      <c r="J26" s="39">
+        <v>1</v>
+      </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -58680,15 +58860,9 @@
       <c r="Y26" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="Z26" s="37">
-        <v>12</v>
-      </c>
-      <c r="AA26" s="37">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="39">
-        <v>1</v>
-      </c>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="39"/>
       <c r="AC26" s="42"/>
       <c r="AD26" s="21"/>
       <c r="AE26" s="21"/>
@@ -58708,10 +58882,18 @@
       <c r="D27" s="22"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="37">
+        <v>12</v>
+      </c>
+      <c r="I27" s="37">
+        <v>3</v>
+      </c>
+      <c r="J27" s="39">
+        <v>1</v>
+      </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -58737,15 +58919,9 @@
       <c r="Y27" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="Z27" s="37">
-        <v>12</v>
-      </c>
-      <c r="AA27" s="37">
-        <v>3</v>
-      </c>
-      <c r="AB27" s="39">
-        <v>1</v>
-      </c>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="39"/>
       <c r="AC27" s="42"/>
       <c r="AD27" s="21"/>
       <c r="AE27" s="21"/>
@@ -58765,10 +58941,18 @@
       <c r="D28" s="22"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="37">
+        <v>12</v>
+      </c>
+      <c r="I28" s="37">
+        <v>3</v>
+      </c>
+      <c r="J28" s="39">
+        <v>1</v>
+      </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -58794,15 +58978,9 @@
       <c r="Y28" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="Z28" s="37">
-        <v>12</v>
-      </c>
-      <c r="AA28" s="37">
-        <v>3</v>
-      </c>
-      <c r="AB28" s="39">
-        <v>1</v>
-      </c>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="39"/>
       <c r="AC28" s="42"/>
       <c r="AD28" s="21"/>
       <c r="AE28" s="21"/>
@@ -58822,10 +59000,18 @@
       <c r="D29" s="22"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="37">
+        <v>12</v>
+      </c>
+      <c r="I29" s="37">
+        <v>3</v>
+      </c>
+      <c r="J29" s="39">
+        <v>1</v>
+      </c>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -58851,15 +59037,9 @@
       <c r="Y29" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Z29" s="37">
-        <v>12</v>
-      </c>
-      <c r="AA29" s="37">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="39">
-        <v>1</v>
-      </c>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="39"/>
       <c r="AC29" s="42"/>
       <c r="AD29" s="21"/>
       <c r="AE29" s="21"/>
@@ -58879,10 +59059,18 @@
       <c r="D30" s="22"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="G30" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="37">
+        <v>12</v>
+      </c>
+      <c r="I30" s="37">
+        <v>3</v>
+      </c>
+      <c r="J30" s="39">
+        <v>1</v>
+      </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -58908,15 +59096,9 @@
       <c r="Y30" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Z30" s="37">
-        <v>12</v>
-      </c>
-      <c r="AA30" s="37">
-        <v>3</v>
-      </c>
-      <c r="AB30" s="39">
-        <v>1</v>
-      </c>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="39"/>
       <c r="AC30" s="42"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>

--- a/documnets/外部設計書_ヨッシーアイランド .xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB2F03-CC3F-4071-9AFB-256E549A7CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADF0866-4BE0-427C-A729-4BD54130356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1080" windowWidth="11295" windowHeight="8400" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="1080" windowWidth="13950" windowHeight="9465" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="30" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="207">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1482,6 +1482,24 @@
   </si>
   <si>
     <t>判定結果</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>logout</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3860,6 +3878,140 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>234673</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27609</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464CA2F8-3885-4BA4-AEA9-8539358FD6F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7689021" y="1380435"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69022</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EC3CB0-9B70-49F1-A04F-09BA476C2308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9110869" y="1421848"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16301,7 +16453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE947E-2311-4DF2-8B48-A5A08300A3AE}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
@@ -20871,8 +21023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8705D-94E3-4738-9E3D-4E3C316AF649}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -24136,19 +24288,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
+      <c r="C80" s="12">
+        <v>2</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="13"/>
+      <c r="H80" s="13" t="s">
+        <v>204</v>
+      </c>
       <c r="I80" s="15"/>
       <c r="J80" s="14"/>
       <c r="K80" s="16"/>
-      <c r="L80" s="13"/>
+      <c r="L80" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="M80" s="14"/>
       <c r="N80" s="16"/>
-      <c r="O80" s="13"/>
+      <c r="O80" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
       <c r="R80" s="16"/>
@@ -24178,19 +24340,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
+      <c r="C81" s="12">
+        <v>3</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="13"/>
+      <c r="H81" s="13" t="s">
+        <v>205</v>
+      </c>
       <c r="I81" s="15"/>
       <c r="J81" s="14"/>
       <c r="K81" s="16"/>
-      <c r="L81" s="13"/>
+      <c r="L81" s="13" t="s">
+        <v>202</v>
+      </c>
       <c r="M81" s="14"/>
       <c r="N81" s="16"/>
-      <c r="O81" s="13"/>
+      <c r="O81" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
       <c r="R81" s="16"/>
@@ -34573,7 +34745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11498FBA-FC4F-4B91-88BB-DCC51B7D3053}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -39161,7 +39333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B788AD-A061-4457-942A-4EA5BB794354}">
   <dimension ref="A1:AT109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
@@ -44037,7 +44209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8555B00A-DA0A-4729-B7B1-07BF42A5E268}">
   <dimension ref="A1:BC109"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
@@ -48672,8 +48844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1525-BDC1-4909-BA39-73257FF6FBB7}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -53059,8 +53231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DCC2AE-3055-4345-8CA5-6A694127B45F}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:B83"/>
+    <sheetView topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -57587,7 +57759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489AACDA-DCF7-43B5-BBC0-0656E4BAFFB5}">
   <dimension ref="A1:AP107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
@@ -62385,7 +62557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1ED5DA-0B7A-4193-9AC9-98AFCA4446C6}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>

--- a/documnets/外部設計書_ヨッシーアイランド .xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B27834-0FDB-473A-BE94-EC7AE186CD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C1EC11-EA8E-4817-8936-BFCA4940537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="465" windowWidth="13950" windowHeight="9465" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="195" windowWidth="14250" windowHeight="10080" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="30" r:id="rId1"/>
@@ -11220,14 +11220,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236207</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>184895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>38138</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>105374</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
@@ -11244,8 +11244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3317825" y="2280395"/>
-          <a:ext cx="4564431" cy="521075"/>
+          <a:off x="4415118" y="2280395"/>
+          <a:ext cx="2413785" cy="521075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11974,10 +11974,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>253174</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>174733</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>812</xdr:rowOff>
+      <xdr:rowOff>79253</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -11993,7 +11993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3054645" y="2286812"/>
+          <a:off x="4096792" y="2365253"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13110,8 +13110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5738778" y="4522656"/>
-          <a:ext cx="1965889" cy="705511"/>
+          <a:off x="5838386" y="4522656"/>
+          <a:ext cx="2005732" cy="705511"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -14260,14 +14260,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>54430</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
@@ -14284,8 +14284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3320144" y="4980213"/>
-          <a:ext cx="4027714" cy="680357"/>
+          <a:off x="4245430" y="4980213"/>
+          <a:ext cx="2285999" cy="680357"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -14912,10 +14912,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>260959</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152103</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>90777</xdr:rowOff>
+      <xdr:rowOff>104384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -14931,7 +14931,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2982388" y="5043777"/>
+          <a:off x="3689960" y="5057384"/>
           <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15003,8 +15003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2217964" y="2630581"/>
-          <a:ext cx="4171389" cy="2267991"/>
+          <a:off x="2199821" y="2630581"/>
+          <a:ext cx="4137371" cy="2267991"/>
           <a:chOff x="2190750" y="2453688"/>
           <a:chExt cx="4171389" cy="2267991"/>
         </a:xfrm>
@@ -15649,8 +15649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6713524" y="2639786"/>
-          <a:ext cx="962504" cy="2258786"/>
+          <a:off x="6659095" y="2639786"/>
+          <a:ext cx="953433" cy="2258786"/>
           <a:chOff x="6849596" y="2427275"/>
           <a:chExt cx="962504" cy="2294404"/>
         </a:xfrm>
@@ -16813,8 +16813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE947E-2311-4DF2-8B48-A5A08300A3AE}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A8" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -21393,7 +21393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA8705D-94E3-4738-9E3D-4E3C316AF649}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="C79" sqref="C79:O79"/>
     </sheetView>
   </sheetViews>
@@ -30523,7 +30523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2509CF9C-2EFD-4B77-AA7A-DD6E5433CC39}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C85" sqref="C85:O85"/>
     </sheetView>
   </sheetViews>
@@ -35127,8 +35127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11498FBA-FC4F-4B91-88BB-DCC51B7D3053}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView topLeftCell="A6" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="AR23" sqref="AR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -39725,7 +39725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B788AD-A061-4457-942A-4EA5BB794354}">
   <dimension ref="A1:AT109"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -49224,8 +49224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1525-BDC1-4909-BA39-73257FF6FBB7}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -53615,8 +53615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DCC2AE-3055-4345-8CA5-6A694127B45F}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="D8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -58135,8 +58135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489AACDA-DCF7-43B5-BBC0-0656E4BAFFB5}">
   <dimension ref="A1:AP107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView topLeftCell="B15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -62919,8 +62919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1ED5DA-0B7A-4193-9AC9-98AFCA4446C6}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AT43" sqref="AT43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>

--- a/documnets/外部設計書_ヨッシーアイランド .xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C1EC11-EA8E-4817-8936-BFCA4940537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726AC22-A39C-44DC-99A8-BD474442FCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="195" windowWidth="14250" windowHeight="10080" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="510" windowWidth="14250" windowHeight="10080" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="30" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="227">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1474,6 +1474,312 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「3　質問事項」</t>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10項目の質問が以下のように表示される。</t>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問11　辛いと感じることがある</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問1　よく眠れなかった</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ネム</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問3　不安に感じることがある</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問4　倦怠感がある</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケンタイカン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問5　周囲とのコミュニケーションが取れていないと感じる</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問6　研修への充実感が少ないと感じる</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジュウジツカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問7　腹痛、頭痛などがある</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問8　イライラをすることが増えたと感じる</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問9　リラックス、息抜きなどが取れていない</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イキヌ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問10　適度な運動をしていない</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テキド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウンドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問12　目が疲れている</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問13　水分補給をあまりしていない</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>スイブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問14　作業環境が不適切（明るさ、温度など）</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フテキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問15　研修内容についていけていないと感じる</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問2　食欲があまりない</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクヨク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>診断結果に表示されるアイコンは以下のような処理を行う。</t>
+    <rPh sb="0" eb="4">
+      <t>シンダンケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・△の条件条件</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・☓の条件条件</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・○の条件条件</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計点数が40点以下</t>
+    <rPh sb="7" eb="8">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計点数が41点～59点</t>
+    <rPh sb="0" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>５の項目が6個 、４の項目が9個、合計点数が60点以上</t>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -44589,8 +44895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8555B00A-DA0A-4729-B7B1-07BF42A5E268}">
   <dimension ref="A1:BC109"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR11" sqref="AR11:BC11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH46" sqref="AH46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -46316,8 +46622,9 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -46358,11 +46665,9 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="E43" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -46400,11 +46705,6 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
@@ -46443,7 +46743,9 @@
       <c r="B45" s="6"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46485,7 +46787,9 @@
       <c r="B46" s="6"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="21" t="s">
+        <v>219</v>
+      </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46527,7 +46831,9 @@
       <c r="B47" s="6"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="E47" s="21" t="s">
+        <v>207</v>
+      </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46567,7 +46873,9 @@
     <row r="48" spans="1:40" ht="15" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="21" t="s">
+        <v>208</v>
+      </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46607,13 +46915,9 @@
     <row r="49" spans="1:40" ht="15" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
+      <c r="E49" s="21" t="s">
+        <v>209</v>
+      </c>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
@@ -46647,7 +46951,9 @@
     <row r="50" spans="1:40" ht="15" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="21" t="s">
+        <v>210</v>
+      </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46687,7 +46993,9 @@
     <row r="51" spans="1:40" ht="15" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="21" t="s">
+        <v>211</v>
+      </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46727,7 +47035,9 @@
     <row r="52" spans="1:40" ht="15" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="21" t="s">
+        <v>212</v>
+      </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46767,7 +47077,9 @@
     <row r="53" spans="1:40" ht="15" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -46807,7 +47119,9 @@
     <row r="54" spans="1:40" ht="15" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="21" t="s">
+        <v>214</v>
+      </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -46847,7 +47161,9 @@
     <row r="55" spans="1:40" ht="15" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -46887,7 +47203,9 @@
     <row r="56" spans="1:40" ht="15" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="21" t="s">
+        <v>215</v>
+      </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -46927,7 +47245,9 @@
     <row r="57" spans="1:40" ht="15" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="21" t="s">
+        <v>216</v>
+      </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -46967,7 +47287,9 @@
     <row r="58" spans="1:40" ht="15" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -47007,7 +47329,9 @@
     <row r="59" spans="1:40" ht="15" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -47087,7 +47411,6 @@
     <row r="61" spans="1:40" ht="15" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
@@ -47167,7 +47490,6 @@
     <row r="63" spans="1:40" ht="15" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="E63" s="21"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
@@ -47247,7 +47569,6 @@
     <row r="65" spans="1:40" ht="15" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="E65" s="21"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -47327,7 +47648,6 @@
     <row r="67" spans="1:40" ht="15" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="E67" s="21"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
@@ -47407,7 +47727,6 @@
     <row r="69" spans="1:40" ht="15" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="E69" s="21"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
@@ -49224,8 +49543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1525-BDC1-4909-BA39-73257FF6FBB7}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView topLeftCell="A41" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -50963,8 +51282,9 @@
     <row r="43" spans="1:40" ht="15" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -51005,8 +51325,9 @@
     <row r="44" spans="1:40" ht="15" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -51047,8 +51368,6 @@
     <row r="45" spans="1:40" ht="15" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -51089,12 +51408,9 @@
     <row r="46" spans="1:40" ht="15" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="C46" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
@@ -51131,11 +51447,9 @@
     <row r="47" spans="1:40" ht="15" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
@@ -51172,6 +51486,9 @@
     <row r="48" spans="1:40" ht="15" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
+      <c r="D48" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="AB48" s="21"/>
       <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
@@ -51189,12 +51506,12 @@
     <row r="49" spans="1:40" ht="15" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="D49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
@@ -51231,11 +51548,12 @@
     <row r="50" spans="1:40" ht="15" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="D50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
@@ -51271,10 +51589,12 @@
     <row r="51" spans="1:40" ht="15" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="D51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -51311,9 +51631,6 @@
     <row r="52" spans="1:40" ht="15" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -51354,16 +51671,9 @@
     <row r="53" spans="1:40" ht="15" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="D53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
+      <c r="C53" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
@@ -51397,21 +51707,12 @@
     <row r="54" spans="1:40" ht="15" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
+      <c r="D54" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
@@ -51437,12 +51738,9 @@
     <row r="55" spans="1:40" ht="15" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
@@ -51463,12 +51761,10 @@
     <row r="56" spans="1:40" ht="15" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="C56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="V56" s="21"/>
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
@@ -51489,6 +51785,12 @@
     <row r="57" spans="1:40" ht="15" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
+      <c r="D57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
@@ -51509,9 +51811,15 @@
     <row r="58" spans="1:40" ht="15" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
       <c r="X58" s="21"/>
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
@@ -51533,9 +51841,18 @@
     <row r="59" spans="1:40" ht="15" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="D59" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="C59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
       <c r="X59" s="21"/>
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
@@ -51557,6 +51874,11 @@
     <row r="60" spans="1:40" ht="15" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
+      <c r="D60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
       <c r="X60" s="21"/>
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
@@ -51578,9 +51900,11 @@
     <row r="61" spans="1:40" ht="15" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="D61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
       <c r="X61" s="21"/>
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
@@ -51602,10 +51926,15 @@
     <row r="62" spans="1:40" ht="15" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="22"/>
-      <c r="D62" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
       <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
       <c r="X62" s="21"/>
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
@@ -51627,6 +51956,11 @@
     <row r="63" spans="1:40" ht="15" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="22"/>
+      <c r="C63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
       <c r="X63" s="21"/>
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
@@ -51648,9 +51982,11 @@
     <row r="64" spans="1:40" ht="15" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="22"/>
-      <c r="C64" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="D64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
       <c r="X64" s="21"/>
       <c r="Y64" s="21"/>
       <c r="Z64" s="21"/>
@@ -51673,8 +52009,10 @@
       <c r="A65" s="6"/>
       <c r="B65" s="22"/>
       <c r="D65" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
       <c r="X65" s="21"/>
       <c r="Y65" s="21"/>
       <c r="Z65" s="21"/>
@@ -51696,6 +52034,7 @@
     <row r="66" spans="1:40" ht="15" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="22"/>
+      <c r="W66" s="21"/>
       <c r="X66" s="21"/>
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
@@ -51717,10 +52056,6 @@
     <row r="67" spans="1:40" ht="15" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="22"/>
-      <c r="C67" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="X67" s="21"/>
       <c r="Y67" s="21"/>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
@@ -51741,10 +52076,6 @@
     <row r="68" spans="1:40" ht="15" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="22"/>
-      <c r="D68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X68" s="21"/>
       <c r="Y68" s="21"/>
       <c r="Z68" s="21"/>
       <c r="AA68" s="21"/>
@@ -51765,16 +52096,6 @@
     <row r="69" spans="1:40" ht="15" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="D69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
       <c r="N69" s="2"/>
@@ -51785,8 +52106,6 @@
       <c r="S69" s="21"/>
       <c r="T69" s="21"/>
       <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
       <c r="AA69" s="21"/>
@@ -51807,13 +52126,6 @@
     <row r="70" spans="1:40" ht="15" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
       <c r="N70" s="2"/>
@@ -51847,9 +52159,6 @@
     <row r="71" spans="1:40" ht="15" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="M71" s="21"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -51882,9 +52191,6 @@
     <row r="72" spans="1:40" ht="15" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="D72" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
       <c r="O72" s="21"/>
@@ -51917,16 +52223,6 @@
     <row r="73" spans="1:40" ht="15" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="D73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
       <c r="N73" s="21"/>
@@ -51977,15 +52273,6 @@
     <row r="77" spans="1:40" ht="15" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
       <c r="L77" s="30"/>
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
@@ -52019,13 +52306,15 @@
     <row r="78" spans="1:40" ht="15" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
       <c r="N78" s="21"/>
@@ -53615,7 +53904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DCC2AE-3055-4345-8CA5-6A694127B45F}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
@@ -62919,7 +63208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1ED5DA-0B7A-4193-9AC9-98AFCA4446C6}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AT43" sqref="AT43"/>
     </sheetView>
   </sheetViews>

--- a/documnets/外部設計書_ヨッシーアイランド .xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726AC22-A39C-44DC-99A8-BD474442FCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C223AB28-778E-4D78-971C-C223549DD8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="510" windowWidth="14250" windowHeight="10080" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="390" windowWidth="11400" windowHeight="10080" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="30" r:id="rId1"/>
@@ -8312,8 +8312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1366845" y="3059905"/>
-          <a:ext cx="2583656" cy="285750"/>
+          <a:off x="1350516" y="3059905"/>
+          <a:ext cx="2542835" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17119,7 +17119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE947E-2311-4DF2-8B48-A5A08300A3AE}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
@@ -40031,8 +40031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B788AD-A061-4457-942A-4EA5BB794354}">
   <dimension ref="A1:AT109"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -44895,8 +44895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8555B00A-DA0A-4729-B7B1-07BF42A5E268}">
   <dimension ref="A1:BC109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH46" sqref="AH46"/>
+    <sheetView topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -49543,8 +49543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1525-BDC1-4909-BA39-73257FF6FBB7}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="AA49" sqref="AA49"/>
+    <sheetView topLeftCell="A9" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -53904,7 +53904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DCC2AE-3055-4345-8CA5-6A694127B45F}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
@@ -58424,7 +58424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489AACDA-DCF7-43B5-BBC0-0656E4BAFFB5}">
   <dimension ref="A1:AP107"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
@@ -63208,8 +63208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1ED5DA-0B7A-4193-9AC9-98AFCA4446C6}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AT43" sqref="AT43"/>
+    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
